--- a/doc/Zeitplan.xlsx
+++ b/doc/Zeitplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\M326\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\M326\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -262,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -279,6 +285,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,7 +295,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -571,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB74" sqref="AB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,7 +839,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -851,14 +859,14 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17" t="s">
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
@@ -879,7 +887,7 @@
       <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="C6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -893,10 +901,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -917,7 +925,7 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="C7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -931,10 +939,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -955,7 +963,7 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="C8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -969,10 +977,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -993,7 +1001,7 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1013,10 +1021,10 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -1037,7 +1045,7 @@
       <c r="AL9" s="14"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1051,10 +1059,10 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1075,7 +1083,7 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="D11" s="3"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1089,10 +1097,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1113,7 +1121,7 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1127,10 +1135,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1151,7 +1159,7 @@
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1169,10 +1177,10 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
@@ -1193,7 +1201,7 @@
       <c r="AL13" s="14"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
@@ -1206,10 +1214,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1230,7 +1238,7 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1243,10 +1251,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1267,7 +1275,7 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="8"/>
@@ -1280,10 +1288,10 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1304,7 +1312,7 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1322,10 +1330,10 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -1346,43 +1354,43 @@
       <c r="AL17" s="10"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1400,10 +1408,10 @@
       <c r="N21" s="11"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -1424,30 +1432,34 @@
       <c r="AL21" s="10"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1467,10 +1479,10 @@
       <c r="N25" s="11"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
@@ -1491,29 +1503,31 @@
       <c r="AL25" s="10"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="N26" s="4"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="N27" s="3"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="N28" s="8"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -1533,10 +1547,10 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -1557,29 +1571,30 @@
       <c r="AL29" s="10"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="N30" s="6"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="N32" s="20"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
       </c>
@@ -1597,10 +1612,10 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
@@ -1621,32 +1636,38 @@
       <c r="AL33" s="10"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1664,10 +1685,10 @@
       <c r="N37" s="10"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
@@ -1688,28 +1709,32 @@
       <c r="AL37" s="10"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
@@ -1727,10 +1752,10 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="10"/>
@@ -1751,28 +1776,32 @@
       <c r="AL41" s="10"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
+      <c r="A43" s="17"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
+      <c r="A44" s="17"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
@@ -1790,10 +1819,10 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
@@ -1814,11 +1843,11 @@
       <c r="AL45" s="10"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
+      <c r="A46" s="17"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -1827,21 +1856,25 @@
       <c r="AB46" s="4"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
+      <c r="A47" s="17"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
+      <c r="A48" s="17"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
@@ -1859,10 +1892,10 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
@@ -1883,32 +1916,32 @@
       <c r="AL49" s="10"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
+      <c r="A52" s="17"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>46</v>
       </c>
@@ -1926,10 +1959,10 @@
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
@@ -1950,28 +1983,28 @@
       <c r="AL53" s="10"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
+      <c r="A54" s="17"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
+      <c r="A55" s="17"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="10" t="s">
         <v>47</v>
       </c>
@@ -1989,10 +2022,10 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
@@ -2013,30 +2046,30 @@
       <c r="AL57" s="10"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
       <c r="AG58" s="4"/>
       <c r="AH58" s="4"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -2056,10 +2089,10 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -2080,30 +2113,30 @@
       <c r="AL61" s="10"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
+      <c r="A62" s="17"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
+      <c r="A63" s="17"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
+      <c r="A64" s="17"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="10" t="s">
         <v>26</v>
       </c>
@@ -2121,10 +2154,10 @@
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
@@ -2145,30 +2178,30 @@
       <c r="AL65" s="11"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="A66" s="17"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
+      <c r="A67" s="17"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A68" s="16"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
+      <c r="A68" s="17"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -2188,10 +2221,10 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
@@ -2212,14 +2245,14 @@
       <c r="AL69" s="10"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
+      <c r="A70" s="17"/>
       <c r="H70" s="7"/>
       <c r="J70" s="4"/>
       <c r="N70" s="4"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
       <c r="V70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AD70" s="4"/>
@@ -2227,13 +2260,21 @@
       <c r="AL70" s="4"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
+      <c r="A71" s="17"/>
       <c r="H71" s="3"/>
-      <c r="L71" s="19"/>
+      <c r="L71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="T71" s="21"/>
+      <c r="X71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="21"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
+      <c r="A72" s="17"/>
       <c r="J72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="Z72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
